--- a/CSV_2_XLSX.xlsx
+++ b/CSV_2_XLSX.xlsx
@@ -12,7 +12,71 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>Engenharia de Computação</t>
+  </si>
+  <si>
+    <t>Segunda</t>
+  </si>
+  <si>
+    <t>Terça</t>
+  </si>
+  <si>
+    <t>Quarta</t>
+  </si>
+  <si>
+    <t>Quinta</t>
+  </si>
+  <si>
+    <t>Sexta</t>
+  </si>
+  <si>
+    <t>Sábado</t>
+  </si>
+  <si>
+    <t>07:00-07:59</t>
+  </si>
+  <si>
+    <t>08:00-08:59</t>
+  </si>
+  <si>
+    <t>09:00-09:59</t>
+  </si>
+  <si>
+    <t>10:00-10:59</t>
+  </si>
+  <si>
+    <t>11:00-11:59</t>
+  </si>
+  <si>
+    <t>13:00-13:59</t>
+  </si>
+  <si>
+    <t>14:00-14:59</t>
+  </si>
+  <si>
+    <t>15:00-15:59</t>
+  </si>
+  <si>
+    <t>16:00-16:59</t>
+  </si>
+  <si>
+    <t>17:00-17:59</t>
+  </si>
+  <si>
+    <t>18:00-18:59</t>
+  </si>
+  <si>
+    <t>19:00-19:59</t>
+  </si>
+  <si>
+    <t>20:00-20:59</t>
+  </si>
+  <si>
+    <t>21:00-21:59</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -47,8 +111,72 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -62,34 +190,104 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>111.0</v>
-      </c>
-      <c r="B1" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="C1" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="D1" t="n">
-        <v>12.0</v>
+      <c r="C1" t="s" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>112.0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>140.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.0</v>
+      <c r="B2" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s" s="5">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s" s="6">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s" s="7">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="22">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/CSV_2_XLSX.xlsx
+++ b/CSV_2_XLSX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Engenharia de Computação</t>
   </si>
@@ -75,6 +75,42 @@
   </si>
   <si>
     <t>21:00-21:59</t>
+  </si>
+  <si>
+    <t>1º Período</t>
+  </si>
+  <si>
+    <t>2º Período</t>
+  </si>
+  <si>
+    <t>3º Período</t>
+  </si>
+  <si>
+    <t>4º Período</t>
+  </si>
+  <si>
+    <t>5º Período</t>
+  </si>
+  <si>
+    <t>6º Período</t>
+  </si>
+  <si>
+    <t>7º Período</t>
+  </si>
+  <si>
+    <t>8º Período</t>
+  </si>
+  <si>
+    <t>9º Período</t>
+  </si>
+  <si>
+    <t>10º Período</t>
+  </si>
+  <si>
+    <t>11º Período</t>
+  </si>
+  <si>
+    <t>12º Período</t>
   </si>
 </sst>
 </file>
@@ -82,13 +118,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,70 +152,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -188,102 +171,1136 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="11.73046875" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="B2" t="s" s="3">
+      <c r="A2" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="E2" t="s" s="6">
+      <c r="E2" t="s" s="1">
         <v>4</v>
       </c>
-      <c r="F2" t="s" s="7">
+      <c r="F2" t="s" s="1">
         <v>5</v>
       </c>
-      <c r="G2" t="s" s="8">
+      <c r="G2" t="s" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="9">
+      <c r="A3" t="s" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="10">
+      <c r="A4" t="s" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="11">
+      <c r="A5" t="s" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="12">
+      <c r="A6" t="s" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="13">
+      <c r="A7" t="s" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="14">
+      <c r="A8" t="s" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="15">
+      <c r="A9" t="s" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="16">
+      <c r="A10" t="s" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="17">
+      <c r="A11" t="s" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="18">
+      <c r="A12" t="s" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="19">
+      <c r="A13" t="s" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="20">
+      <c r="A14" t="s" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="21">
+      <c r="A15" t="s" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="22">
+      <c r="A16" t="s" s="1">
         <v>20</v>
       </c>
     </row>
+    <row r="17"/>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99"/>
+    <row r="100"/>
+    <row r="101"/>
+    <row r="102"/>
+    <row r="103"/>
+    <row r="104"/>
+    <row r="105"/>
+    <row r="106"/>
+    <row r="107"/>
+    <row r="108"/>
+    <row r="109"/>
+    <row r="110"/>
+    <row r="111"/>
+    <row r="112"/>
+    <row r="113"/>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115"/>
+    <row r="116"/>
+    <row r="117"/>
+    <row r="118"/>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130">
+      <c r="A130" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="131"/>
+    <row r="132"/>
+    <row r="133"/>
+    <row r="134"/>
+    <row r="135"/>
+    <row r="136"/>
+    <row r="137"/>
+    <row r="138"/>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145"/>
+    <row r="146">
+      <c r="A146" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="147"/>
+    <row r="148"/>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
+    <row r="155"/>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160"/>
+    <row r="161"/>
+    <row r="162">
+      <c r="A162" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="163"/>
+    <row r="164"/>
+    <row r="165"/>
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168"/>
+    <row r="169"/>
+    <row r="170"/>
+    <row r="171"/>
+    <row r="172"/>
+    <row r="173"/>
+    <row r="174"/>
+    <row r="175"/>
+    <row r="176"/>
+    <row r="177"/>
+    <row r="178">
+      <c r="A178" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="179"/>
+    <row r="180"/>
+    <row r="181"/>
+    <row r="182"/>
+    <row r="183"/>
+    <row r="184"/>
+    <row r="185"/>
+    <row r="186"/>
+    <row r="187"/>
+    <row r="188"/>
+    <row r="189"/>
+    <row r="190"/>
+    <row r="191"/>
+    <row r="192"/>
+    <row r="193"/>
+    <row r="194"/>
+    <row r="195"/>
+    <row r="196"/>
+    <row r="197"/>
+    <row r="198"/>
+    <row r="199"/>
+    <row r="200"/>
+    <row r="201"/>
+    <row r="202"/>
+    <row r="203"/>
+    <row r="204"/>
+    <row r="205"/>
+    <row r="206"/>
+    <row r="207"/>
+    <row r="208"/>
+    <row r="209"/>
+    <row r="210"/>
+    <row r="211"/>
+    <row r="212"/>
+    <row r="213"/>
+    <row r="214"/>
+    <row r="215"/>
+    <row r="216"/>
+    <row r="217"/>
+    <row r="218"/>
+    <row r="219"/>
+    <row r="220"/>
+    <row r="221"/>
+    <row r="222"/>
+    <row r="223"/>
+    <row r="224"/>
+    <row r="225"/>
+    <row r="226"/>
+    <row r="227"/>
+    <row r="228"/>
+    <row r="229"/>
+    <row r="230"/>
+    <row r="231"/>
+    <row r="232"/>
+    <row r="233"/>
+    <row r="234"/>
+    <row r="235"/>
+    <row r="236"/>
+    <row r="237"/>
+    <row r="238"/>
+    <row r="239"/>
+    <row r="240"/>
+    <row r="241"/>
+    <row r="242"/>
+    <row r="243"/>
+    <row r="244"/>
+    <row r="245"/>
+    <row r="246"/>
+    <row r="247"/>
+    <row r="248"/>
+    <row r="249"/>
+    <row r="250"/>
+    <row r="251"/>
+    <row r="252"/>
+    <row r="253"/>
+    <row r="254"/>
+    <row r="255"/>
+    <row r="256"/>
+    <row r="257"/>
+    <row r="258"/>
+    <row r="259"/>
+    <row r="260"/>
+    <row r="261"/>
+    <row r="262"/>
+    <row r="263"/>
+    <row r="264"/>
+    <row r="265"/>
+    <row r="266"/>
+    <row r="267"/>
+    <row r="268"/>
+    <row r="269"/>
+    <row r="270"/>
+    <row r="271"/>
+    <row r="272"/>
+    <row r="273"/>
+    <row r="274"/>
+    <row r="275"/>
+    <row r="276"/>
+    <row r="277"/>
+    <row r="278"/>
+    <row r="279"/>
+    <row r="280"/>
+    <row r="281"/>
+    <row r="282"/>
+    <row r="283"/>
+    <row r="284"/>
+    <row r="285"/>
+    <row r="286"/>
+    <row r="287"/>
+    <row r="288"/>
+    <row r="289"/>
+    <row r="290"/>
+    <row r="291"/>
+    <row r="292"/>
+    <row r="293"/>
+    <row r="294"/>
+    <row r="295"/>
+    <row r="296"/>
+    <row r="297"/>
+    <row r="298"/>
+    <row r="299"/>
+    <row r="300"/>
+    <row r="301"/>
+    <row r="302"/>
+    <row r="303"/>
+    <row r="304"/>
+    <row r="305"/>
+    <row r="306"/>
+    <row r="307"/>
+    <row r="308"/>
+    <row r="309"/>
+    <row r="310"/>
+    <row r="311"/>
+    <row r="312"/>
+    <row r="313"/>
+    <row r="314"/>
+    <row r="315"/>
+    <row r="316"/>
+    <row r="317"/>
+    <row r="318"/>
+    <row r="319"/>
+    <row r="320"/>
+    <row r="321"/>
+    <row r="322"/>
+    <row r="323"/>
+    <row r="324"/>
+    <row r="325"/>
+    <row r="326"/>
+    <row r="327"/>
+    <row r="328"/>
+    <row r="329"/>
+    <row r="330"/>
+    <row r="331"/>
+    <row r="332"/>
+    <row r="333"/>
+    <row r="334"/>
+    <row r="335"/>
+    <row r="336"/>
+    <row r="337"/>
+    <row r="338"/>
+    <row r="339"/>
+    <row r="340"/>
+    <row r="341"/>
+    <row r="342"/>
+    <row r="343"/>
+    <row r="344"/>
+    <row r="345"/>
+    <row r="346"/>
+    <row r="347"/>
+    <row r="348"/>
+    <row r="349"/>
+    <row r="350"/>
+    <row r="351"/>
+    <row r="352"/>
+    <row r="353"/>
+    <row r="354"/>
+    <row r="355"/>
+    <row r="356"/>
+    <row r="357"/>
+    <row r="358"/>
+    <row r="359"/>
+    <row r="360"/>
+    <row r="361"/>
+    <row r="362"/>
+    <row r="363"/>
+    <row r="364"/>
+    <row r="365"/>
+    <row r="366"/>
+    <row r="367"/>
+    <row r="368"/>
+    <row r="369"/>
+    <row r="370"/>
+    <row r="371"/>
+    <row r="372"/>
+    <row r="373"/>
+    <row r="374"/>
+    <row r="375"/>
+    <row r="376"/>
+    <row r="377"/>
+    <row r="378"/>
+    <row r="379"/>
+    <row r="380"/>
+    <row r="381"/>
+    <row r="382"/>
+    <row r="383"/>
+    <row r="384"/>
+    <row r="385"/>
+    <row r="386"/>
+    <row r="387"/>
+    <row r="388"/>
+    <row r="389"/>
+    <row r="390"/>
+    <row r="391"/>
+    <row r="392"/>
+    <row r="393"/>
+    <row r="394"/>
+    <row r="395"/>
+    <row r="396"/>
+    <row r="397"/>
+    <row r="398"/>
+    <row r="399"/>
+    <row r="400"/>
+    <row r="401"/>
+    <row r="402"/>
+    <row r="403"/>
+    <row r="404"/>
+    <row r="405"/>
+    <row r="406"/>
+    <row r="407"/>
+    <row r="408"/>
+    <row r="409"/>
+    <row r="410"/>
+    <row r="411"/>
+    <row r="412"/>
+    <row r="413"/>
+    <row r="414"/>
+    <row r="415"/>
+    <row r="416"/>
+    <row r="417"/>
+    <row r="418"/>
+    <row r="419"/>
+    <row r="420"/>
+    <row r="421"/>
+    <row r="422"/>
+    <row r="423"/>
+    <row r="424"/>
+    <row r="425"/>
+    <row r="426"/>
+    <row r="427"/>
+    <row r="428"/>
+    <row r="429"/>
+    <row r="430"/>
+    <row r="431"/>
+    <row r="432"/>
+    <row r="433"/>
+    <row r="434"/>
+    <row r="435"/>
+    <row r="436"/>
+    <row r="437"/>
+    <row r="438"/>
+    <row r="439"/>
+    <row r="440"/>
+    <row r="441"/>
+    <row r="442"/>
+    <row r="443"/>
+    <row r="444"/>
+    <row r="445"/>
+    <row r="446"/>
+    <row r="447"/>
+    <row r="448"/>
+    <row r="449"/>
+    <row r="450"/>
+    <row r="451"/>
+    <row r="452"/>
+    <row r="453"/>
+    <row r="454"/>
+    <row r="455"/>
+    <row r="456"/>
+    <row r="457"/>
+    <row r="458"/>
+    <row r="459"/>
+    <row r="460"/>
+    <row r="461"/>
+    <row r="462"/>
+    <row r="463"/>
+    <row r="464"/>
+    <row r="465"/>
+    <row r="466"/>
+    <row r="467"/>
+    <row r="468"/>
+    <row r="469"/>
+    <row r="470"/>
+    <row r="471"/>
+    <row r="472"/>
+    <row r="473"/>
+    <row r="474"/>
+    <row r="475"/>
+    <row r="476"/>
+    <row r="477"/>
+    <row r="478"/>
+    <row r="479"/>
+    <row r="480"/>
+    <row r="481"/>
+    <row r="482"/>
+    <row r="483"/>
+    <row r="484"/>
+    <row r="485"/>
+    <row r="486"/>
+    <row r="487"/>
+    <row r="488"/>
+    <row r="489"/>
+    <row r="490"/>
+    <row r="491"/>
+    <row r="492"/>
+    <row r="493"/>
+    <row r="494"/>
+    <row r="495"/>
+    <row r="496"/>
+    <row r="497"/>
+    <row r="498"/>
+    <row r="499"/>
+    <row r="500"/>
+    <row r="501"/>
+    <row r="502"/>
+    <row r="503"/>
+    <row r="504"/>
+    <row r="505"/>
+    <row r="506"/>
+    <row r="507"/>
+    <row r="508"/>
+    <row r="509"/>
+    <row r="510"/>
+    <row r="511"/>
+    <row r="512"/>
+    <row r="513"/>
+    <row r="514"/>
+    <row r="515"/>
+    <row r="516"/>
+    <row r="517"/>
+    <row r="518"/>
+    <row r="519"/>
+    <row r="520"/>
+    <row r="521"/>
+    <row r="522"/>
+    <row r="523"/>
+    <row r="524"/>
+    <row r="525"/>
+    <row r="526"/>
+    <row r="527"/>
+    <row r="528"/>
+    <row r="529"/>
+    <row r="530"/>
+    <row r="531"/>
+    <row r="532"/>
+    <row r="533"/>
+    <row r="534"/>
+    <row r="535"/>
+    <row r="536"/>
+    <row r="537"/>
+    <row r="538"/>
+    <row r="539"/>
+    <row r="540"/>
+    <row r="541"/>
+    <row r="542"/>
+    <row r="543"/>
+    <row r="544"/>
+    <row r="545"/>
+    <row r="546"/>
+    <row r="547"/>
+    <row r="548"/>
+    <row r="549"/>
+    <row r="550"/>
+    <row r="551"/>
+    <row r="552"/>
+    <row r="553"/>
+    <row r="554"/>
+    <row r="555"/>
+    <row r="556"/>
+    <row r="557"/>
+    <row r="558"/>
+    <row r="559"/>
+    <row r="560"/>
+    <row r="561"/>
+    <row r="562"/>
+    <row r="563"/>
+    <row r="564"/>
+    <row r="565"/>
+    <row r="566"/>
+    <row r="567"/>
+    <row r="568"/>
+    <row r="569"/>
+    <row r="570"/>
+    <row r="571"/>
+    <row r="572"/>
+    <row r="573"/>
+    <row r="574"/>
+    <row r="575"/>
+    <row r="576"/>
+    <row r="577"/>
+    <row r="578"/>
+    <row r="579"/>
+    <row r="580"/>
+    <row r="581"/>
+    <row r="582"/>
+    <row r="583"/>
+    <row r="584"/>
+    <row r="585"/>
+    <row r="586"/>
+    <row r="587"/>
+    <row r="588"/>
+    <row r="589"/>
+    <row r="590"/>
+    <row r="591"/>
+    <row r="592"/>
+    <row r="593"/>
+    <row r="594"/>
+    <row r="595"/>
+    <row r="596"/>
+    <row r="597"/>
+    <row r="598"/>
+    <row r="599"/>
+    <row r="600"/>
+    <row r="601"/>
+    <row r="602"/>
+    <row r="603"/>
+    <row r="604"/>
+    <row r="605"/>
+    <row r="606"/>
+    <row r="607"/>
+    <row r="608"/>
+    <row r="609"/>
+    <row r="610"/>
+    <row r="611"/>
+    <row r="612"/>
+    <row r="613"/>
+    <row r="614"/>
+    <row r="615"/>
+    <row r="616"/>
+    <row r="617"/>
+    <row r="618"/>
+    <row r="619"/>
+    <row r="620"/>
+    <row r="621"/>
+    <row r="622"/>
+    <row r="623"/>
+    <row r="624"/>
+    <row r="625"/>
+    <row r="626"/>
+    <row r="627"/>
+    <row r="628"/>
+    <row r="629"/>
+    <row r="630"/>
+    <row r="631"/>
+    <row r="632"/>
+    <row r="633"/>
+    <row r="634"/>
+    <row r="635"/>
+    <row r="636"/>
+    <row r="637"/>
+    <row r="638"/>
+    <row r="639"/>
+    <row r="640"/>
+    <row r="641"/>
+    <row r="642"/>
+    <row r="643"/>
+    <row r="644"/>
+    <row r="645"/>
+    <row r="646"/>
+    <row r="647"/>
+    <row r="648"/>
+    <row r="649"/>
+    <row r="650"/>
+    <row r="651"/>
+    <row r="652"/>
+    <row r="653"/>
+    <row r="654"/>
+    <row r="655"/>
+    <row r="656"/>
+    <row r="657"/>
+    <row r="658"/>
+    <row r="659"/>
+    <row r="660"/>
+    <row r="661"/>
+    <row r="662"/>
+    <row r="663"/>
+    <row r="664"/>
+    <row r="665"/>
+    <row r="666"/>
+    <row r="667"/>
+    <row r="668"/>
+    <row r="669"/>
+    <row r="670"/>
+    <row r="671"/>
+    <row r="672"/>
+    <row r="673"/>
+    <row r="674"/>
+    <row r="675"/>
+    <row r="676"/>
+    <row r="677"/>
+    <row r="678"/>
+    <row r="679"/>
+    <row r="680"/>
+    <row r="681"/>
+    <row r="682"/>
+    <row r="683"/>
+    <row r="684"/>
+    <row r="685"/>
+    <row r="686"/>
+    <row r="687"/>
+    <row r="688"/>
+    <row r="689"/>
+    <row r="690"/>
+    <row r="691"/>
+    <row r="692"/>
+    <row r="693"/>
+    <row r="694"/>
+    <row r="695"/>
+    <row r="696"/>
+    <row r="697"/>
+    <row r="698"/>
+    <row r="699"/>
+    <row r="700"/>
+    <row r="701"/>
+    <row r="702"/>
+    <row r="703"/>
+    <row r="704"/>
+    <row r="705"/>
+    <row r="706"/>
+    <row r="707"/>
+    <row r="708"/>
+    <row r="709"/>
+    <row r="710"/>
+    <row r="711"/>
+    <row r="712"/>
+    <row r="713"/>
+    <row r="714"/>
+    <row r="715"/>
+    <row r="716"/>
+    <row r="717"/>
+    <row r="718"/>
+    <row r="719"/>
+    <row r="720"/>
+    <row r="721"/>
+    <row r="722"/>
+    <row r="723"/>
+    <row r="724"/>
+    <row r="725"/>
+    <row r="726"/>
+    <row r="727"/>
+    <row r="728"/>
+    <row r="729"/>
+    <row r="730"/>
+    <row r="731"/>
+    <row r="732"/>
+    <row r="733"/>
+    <row r="734"/>
+    <row r="735"/>
+    <row r="736"/>
+    <row r="737"/>
+    <row r="738"/>
+    <row r="739"/>
+    <row r="740"/>
+    <row r="741"/>
+    <row r="742"/>
+    <row r="743"/>
+    <row r="744"/>
+    <row r="745"/>
+    <row r="746"/>
+    <row r="747"/>
+    <row r="748"/>
+    <row r="749"/>
+    <row r="750"/>
+    <row r="751"/>
+    <row r="752"/>
+    <row r="753"/>
+    <row r="754"/>
+    <row r="755"/>
+    <row r="756"/>
+    <row r="757"/>
+    <row r="758"/>
+    <row r="759"/>
+    <row r="760"/>
+    <row r="761"/>
+    <row r="762"/>
+    <row r="763"/>
+    <row r="764"/>
+    <row r="765"/>
+    <row r="766"/>
+    <row r="767"/>
+    <row r="768"/>
+    <row r="769"/>
+    <row r="770"/>
+    <row r="771"/>
+    <row r="772"/>
+    <row r="773"/>
+    <row r="774"/>
+    <row r="775"/>
+    <row r="776"/>
+    <row r="777"/>
+    <row r="778"/>
+    <row r="779"/>
+    <row r="780"/>
+    <row r="781"/>
+    <row r="782"/>
+    <row r="783"/>
+    <row r="784"/>
+    <row r="785"/>
+    <row r="786"/>
+    <row r="787"/>
+    <row r="788"/>
+    <row r="789"/>
+    <row r="790"/>
+    <row r="791"/>
+    <row r="792"/>
+    <row r="793"/>
+    <row r="794"/>
+    <row r="795"/>
+    <row r="796"/>
+    <row r="797"/>
+    <row r="798"/>
+    <row r="799"/>
+    <row r="800"/>
+    <row r="801"/>
+    <row r="802"/>
+    <row r="803"/>
+    <row r="804"/>
+    <row r="805"/>
+    <row r="806"/>
+    <row r="807"/>
+    <row r="808"/>
+    <row r="809"/>
+    <row r="810"/>
+    <row r="811"/>
+    <row r="812"/>
+    <row r="813"/>
+    <row r="814"/>
+    <row r="815"/>
+    <row r="816"/>
+    <row r="817"/>
+    <row r="818"/>
+    <row r="819"/>
+    <row r="820"/>
+    <row r="821"/>
+    <row r="822"/>
+    <row r="823"/>
+    <row r="824"/>
+    <row r="825"/>
+    <row r="826"/>
+    <row r="827"/>
+    <row r="828"/>
+    <row r="829"/>
+    <row r="830"/>
+    <row r="831"/>
+    <row r="832"/>
+    <row r="833"/>
+    <row r="834"/>
+    <row r="835"/>
+    <row r="836"/>
+    <row r="837"/>
+    <row r="838"/>
+    <row r="839"/>
+    <row r="840"/>
+    <row r="841"/>
+    <row r="842"/>
+    <row r="843"/>
+    <row r="844"/>
+    <row r="845"/>
+    <row r="846"/>
+    <row r="847"/>
+    <row r="848"/>
+    <row r="849"/>
+    <row r="850"/>
+    <row r="851"/>
+    <row r="852"/>
+    <row r="853"/>
+    <row r="854"/>
+    <row r="855"/>
+    <row r="856"/>
+    <row r="857"/>
+    <row r="858"/>
+    <row r="859"/>
+    <row r="860"/>
+    <row r="861"/>
+    <row r="862"/>
+    <row r="863"/>
+    <row r="864"/>
+    <row r="865"/>
+    <row r="866"/>
+    <row r="867"/>
+    <row r="868"/>
+    <row r="869"/>
+    <row r="870"/>
+    <row r="871"/>
+    <row r="872"/>
+    <row r="873"/>
+    <row r="874"/>
+    <row r="875"/>
+    <row r="876"/>
+    <row r="877"/>
+    <row r="878"/>
+    <row r="879"/>
+    <row r="880"/>
+    <row r="881"/>
+    <row r="882"/>
+    <row r="883"/>
+    <row r="884"/>
+    <row r="885"/>
+    <row r="886"/>
+    <row r="887"/>
+    <row r="888"/>
+    <row r="889"/>
+    <row r="890"/>
+    <row r="891"/>
+    <row r="892"/>
+    <row r="893"/>
+    <row r="894"/>
+    <row r="895"/>
+    <row r="896"/>
+    <row r="897"/>
+    <row r="898"/>
+    <row r="899"/>
+    <row r="900"/>
+    <row r="901"/>
+    <row r="902"/>
+    <row r="903"/>
+    <row r="904"/>
+    <row r="905"/>
+    <row r="906"/>
+    <row r="907"/>
+    <row r="908"/>
+    <row r="909"/>
+    <row r="910"/>
+    <row r="911"/>
+    <row r="912"/>
+    <row r="913"/>
+    <row r="914"/>
+    <row r="915"/>
+    <row r="916"/>
+    <row r="917"/>
+    <row r="918"/>
+    <row r="919"/>
+    <row r="920"/>
+    <row r="921"/>
+    <row r="922"/>
+    <row r="923"/>
+    <row r="924"/>
+    <row r="925"/>
+    <row r="926"/>
+    <row r="927"/>
+    <row r="928"/>
+    <row r="929"/>
+    <row r="930"/>
+    <row r="931"/>
+    <row r="932"/>
+    <row r="933"/>
+    <row r="934"/>
+    <row r="935"/>
+    <row r="936"/>
+    <row r="937"/>
+    <row r="938"/>
+    <row r="939"/>
+    <row r="940"/>
+    <row r="941"/>
+    <row r="942"/>
+    <row r="943"/>
+    <row r="944"/>
+    <row r="945"/>
+    <row r="946"/>
+    <row r="947"/>
+    <row r="948"/>
+    <row r="949"/>
+    <row r="950"/>
+    <row r="951"/>
+    <row r="952"/>
+    <row r="953"/>
+    <row r="954"/>
+    <row r="955"/>
+    <row r="956"/>
+    <row r="957"/>
+    <row r="958"/>
+    <row r="959"/>
+    <row r="960"/>
+    <row r="961"/>
+    <row r="962"/>
+    <row r="963"/>
+    <row r="964"/>
+    <row r="965"/>
+    <row r="966"/>
+    <row r="967"/>
+    <row r="968"/>
+    <row r="969"/>
+    <row r="970"/>
+    <row r="971"/>
+    <row r="972"/>
+    <row r="973"/>
+    <row r="974"/>
+    <row r="975"/>
+    <row r="976"/>
+    <row r="977"/>
+    <row r="978"/>
+    <row r="979"/>
+    <row r="980"/>
+    <row r="981"/>
+    <row r="982"/>
+    <row r="983"/>
+    <row r="984"/>
+    <row r="985"/>
+    <row r="986"/>
+    <row r="987"/>
+    <row r="988"/>
+    <row r="989"/>
+    <row r="990"/>
+    <row r="991"/>
+    <row r="992"/>
+    <row r="993"/>
+    <row r="994"/>
+    <row r="995"/>
+    <row r="996"/>
+    <row r="997"/>
+    <row r="998"/>
+    <row r="999"/>
+    <row r="1000"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="C1:E1"/>

--- a/CSV_2_XLSX.xlsx
+++ b/CSV_2_XLSX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="33">
   <si>
     <t>Engenharia de Computação</t>
   </si>
@@ -140,7 +140,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -148,16 +148,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -176,7 +247,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="C1" t="s" s="1">
+      <c r="C1" t="s" s="3">
         <v>0</v>
       </c>
     </row>
@@ -278,6 +349,24 @@
       <c r="A18" t="s" s="2">
         <v>22</v>
       </c>
+      <c r="B18" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="1">
@@ -354,6 +443,24 @@
       <c r="A34" t="s" s="2">
         <v>23</v>
       </c>
+      <c r="B34" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="F34" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="1">
@@ -430,6 +537,24 @@
       <c r="A50" t="s" s="2">
         <v>24</v>
       </c>
+      <c r="B50" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="F50" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="G50" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="1">
@@ -506,6 +631,24 @@
       <c r="A66" t="s" s="2">
         <v>25</v>
       </c>
+      <c r="B66" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E66" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="F66" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="G66" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="1">
@@ -582,6 +725,24 @@
       <c r="A82" t="s" s="2">
         <v>26</v>
       </c>
+      <c r="B82" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E82" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="F82" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="G82" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="1">
@@ -658,6 +819,24 @@
       <c r="A98" t="s" s="2">
         <v>27</v>
       </c>
+      <c r="B98" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E98" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="F98" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="G98" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="1">
@@ -734,6 +913,24 @@
       <c r="A114" t="s" s="2">
         <v>28</v>
       </c>
+      <c r="B114" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="D114" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E114" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="F114" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="G114" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="1">
@@ -810,6 +1007,24 @@
       <c r="A130" t="s" s="2">
         <v>29</v>
       </c>
+      <c r="B130" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="D130" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E130" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="F130" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="G130" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="1">
@@ -886,6 +1101,24 @@
       <c r="A146" t="s" s="2">
         <v>30</v>
       </c>
+      <c r="B146" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="C146" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="D146" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E146" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="F146" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="G146" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="1">
@@ -962,6 +1195,24 @@
       <c r="A162" t="s" s="2">
         <v>31</v>
       </c>
+      <c r="B162" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="C162" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="D162" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E162" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="F162" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="G162" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="1">
@@ -1037,6 +1288,24 @@
     <row r="178">
       <c r="A178" t="s" s="2">
         <v>32</v>
+      </c>
+      <c r="B178" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="C178" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="D178" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E178" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="F178" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="G178" t="s" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="179">

--- a/CSV_2_XLSX.xlsx
+++ b/CSV_2_XLSX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="35">
   <si>
     <t>Engenharia de Computação</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>12º Período</t>
+  </si>
+  <si>
+    <t>Engenharia Elétrica</t>
+  </si>
+  <si>
+    <t>Engenharia Mecânica</t>
   </si>
 </sst>
 </file>
@@ -244,12 +250,20 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="11.73046875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.73046875" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="11.73046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="C1" t="s" s="3">
         <v>0</v>
       </c>
+      <c r="L1" t="s" s="3">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s" s="3">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -273,74 +287,200 @@
       <c r="G2" t="s" s="1">
         <v>6</v>
       </c>
+      <c r="J2" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="P2" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="T2" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="V2" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="W2" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="X2" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y2" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="1">
         <v>7</v>
       </c>
+      <c r="J3" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="S3" t="s" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="1">
         <v>8</v>
       </c>
+      <c r="J4" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="S4" t="s" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
         <v>9</v>
       </c>
+      <c r="J5" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="S5" t="s" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="1">
         <v>10</v>
       </c>
+      <c r="J6" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="S6" t="s" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
         <v>11</v>
       </c>
+      <c r="J7" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="S7" t="s" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="1">
         <v>12</v>
       </c>
+      <c r="J8" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="S8" t="s" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="J9" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="S9" t="s" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="1">
         <v>14</v>
       </c>
+      <c r="J10" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="S10" t="s" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="1">
         <v>15</v>
       </c>
+      <c r="J11" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="S11" t="s" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="1">
         <v>16</v>
       </c>
+      <c r="J12" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="S12" t="s" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="1">
         <v>17</v>
       </c>
+      <c r="J13" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="S13" t="s" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="1">
         <v>18</v>
       </c>
+      <c r="J14" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="S14" t="s" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="1">
         <v>19</v>
       </c>
+      <c r="J15" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="S15" t="s" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="S16" t="s" s="1">
         <v>20</v>
       </c>
     </row>
@@ -367,74 +507,200 @@
       <c r="G18" t="s" s="1">
         <v>6</v>
       </c>
+      <c r="J18" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K18" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="M18" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="O18" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="P18" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T18" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="U18" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="V18" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="W18" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="X18" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y18" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="1">
         <v>7</v>
       </c>
+      <c r="J19" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="S19" t="s" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="1">
         <v>8</v>
       </c>
+      <c r="J20" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="S20" t="s" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="1">
         <v>9</v>
       </c>
+      <c r="J21" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="S21" t="s" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="1">
         <v>10</v>
       </c>
+      <c r="J22" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="S22" t="s" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="1">
         <v>11</v>
       </c>
+      <c r="J23" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="S23" t="s" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="1">
         <v>12</v>
       </c>
+      <c r="J24" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="S24" t="s" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="J25" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="S25" t="s" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="1">
         <v>14</v>
       </c>
+      <c r="J26" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="S26" t="s" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="1">
         <v>15</v>
       </c>
+      <c r="J27" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="S27" t="s" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="1">
         <v>16</v>
       </c>
+      <c r="J28" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="S28" t="s" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="1">
         <v>17</v>
       </c>
+      <c r="J29" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="S29" t="s" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="1">
         <v>18</v>
       </c>
+      <c r="J30" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="S30" t="s" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="1">
         <v>19</v>
       </c>
+      <c r="J31" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="S31" t="s" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="J32" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="S32" t="s" s="1">
         <v>20</v>
       </c>
     </row>
@@ -461,74 +727,200 @@
       <c r="G34" t="s" s="1">
         <v>6</v>
       </c>
+      <c r="J34" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="K34" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="M34" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="O34" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="P34" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="T34" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="U34" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="V34" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="W34" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="X34" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y34" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="1">
         <v>7</v>
       </c>
+      <c r="J35" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="S35" t="s" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="1">
         <v>8</v>
       </c>
+      <c r="J36" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="S36" t="s" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="1">
         <v>9</v>
       </c>
+      <c r="J37" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="S37" t="s" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="1">
         <v>10</v>
       </c>
+      <c r="J38" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="S38" t="s" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="1">
         <v>11</v>
       </c>
+      <c r="J39" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="S39" t="s" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="1">
         <v>12</v>
       </c>
+      <c r="J40" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="S40" t="s" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="J41" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="S41" t="s" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="1">
         <v>14</v>
       </c>
+      <c r="J42" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="S42" t="s" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="1">
         <v>15</v>
       </c>
+      <c r="J43" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="S43" t="s" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="1">
         <v>16</v>
       </c>
+      <c r="J44" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="S44" t="s" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="1">
         <v>17</v>
       </c>
+      <c r="J45" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="S45" t="s" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="1">
         <v>18</v>
       </c>
+      <c r="J46" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="S46" t="s" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="1">
         <v>19</v>
       </c>
+      <c r="J47" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="S47" t="s" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="J48" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="S48" t="s" s="1">
         <v>20</v>
       </c>
     </row>
@@ -555,74 +947,200 @@
       <c r="G50" t="s" s="1">
         <v>6</v>
       </c>
+      <c r="J50" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="K50" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="L50" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="M50" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="O50" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="P50" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="T50" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="U50" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="V50" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="W50" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="X50" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y50" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="1">
         <v>7</v>
       </c>
+      <c r="J51" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="S51" t="s" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="1">
         <v>8</v>
       </c>
+      <c r="J52" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="S52" t="s" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="1">
         <v>9</v>
       </c>
+      <c r="J53" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="S53" t="s" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="1">
         <v>10</v>
       </c>
+      <c r="J54" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="S54" t="s" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="1">
         <v>11</v>
       </c>
+      <c r="J55" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="S55" t="s" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="1">
         <v>12</v>
       </c>
+      <c r="J56" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="S56" t="s" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="J57" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="S57" t="s" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="1">
         <v>14</v>
       </c>
+      <c r="J58" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="S58" t="s" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="1">
         <v>15</v>
       </c>
+      <c r="J59" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="S59" t="s" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="1">
         <v>16</v>
       </c>
+      <c r="J60" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="S60" t="s" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="1">
         <v>17</v>
       </c>
+      <c r="J61" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="S61" t="s" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="1">
         <v>18</v>
       </c>
+      <c r="J62" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="S62" t="s" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="1">
         <v>19</v>
       </c>
+      <c r="J63" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="S63" t="s" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="J64" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="S64" t="s" s="1">
         <v>20</v>
       </c>
     </row>
@@ -649,74 +1167,200 @@
       <c r="G66" t="s" s="1">
         <v>6</v>
       </c>
+      <c r="J66" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="K66" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="L66" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="M66" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="O66" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="P66" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="T66" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="U66" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="V66" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="W66" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="X66" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y66" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="1">
         <v>7</v>
       </c>
+      <c r="J67" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="S67" t="s" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="1">
         <v>8</v>
       </c>
+      <c r="J68" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="S68" t="s" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="1">
         <v>9</v>
       </c>
+      <c r="J69" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="S69" t="s" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="1">
         <v>10</v>
       </c>
+      <c r="J70" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="S70" t="s" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="1">
         <v>11</v>
       </c>
+      <c r="J71" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="S71" t="s" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="1">
         <v>12</v>
       </c>
+      <c r="J72" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="S72" t="s" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="J73" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="S73" t="s" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="1">
         <v>14</v>
       </c>
+      <c r="J74" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="S74" t="s" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="1">
         <v>15</v>
       </c>
+      <c r="J75" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="S75" t="s" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="1">
         <v>16</v>
       </c>
+      <c r="J76" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="S76" t="s" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="1">
         <v>17</v>
       </c>
+      <c r="J77" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="S77" t="s" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="1">
         <v>18</v>
       </c>
+      <c r="J78" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="S78" t="s" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="1">
         <v>19</v>
       </c>
+      <c r="J79" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="S79" t="s" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="J80" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="S80" t="s" s="1">
         <v>20</v>
       </c>
     </row>
@@ -743,74 +1387,200 @@
       <c r="G82" t="s" s="1">
         <v>6</v>
       </c>
+      <c r="J82" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="K82" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="L82" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="M82" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="O82" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="P82" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="T82" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="U82" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="V82" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="W82" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="X82" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y82" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="1">
         <v>7</v>
       </c>
+      <c r="J83" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="S83" t="s" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="1">
         <v>8</v>
       </c>
+      <c r="J84" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="S84" t="s" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="1">
         <v>9</v>
       </c>
+      <c r="J85" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="S85" t="s" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="1">
         <v>10</v>
       </c>
+      <c r="J86" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="S86" t="s" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="1">
         <v>11</v>
       </c>
+      <c r="J87" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="S87" t="s" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="1">
         <v>12</v>
       </c>
+      <c r="J88" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="S88" t="s" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="J89" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="S89" t="s" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="1">
         <v>14</v>
       </c>
+      <c r="J90" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="S90" t="s" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="1">
         <v>15</v>
       </c>
+      <c r="J91" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="S91" t="s" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="1">
         <v>16</v>
       </c>
+      <c r="J92" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="S92" t="s" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="1">
         <v>17</v>
       </c>
+      <c r="J93" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="S93" t="s" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="1">
         <v>18</v>
       </c>
+      <c r="J94" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="S94" t="s" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="1">
         <v>19</v>
       </c>
+      <c r="J95" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="S95" t="s" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="J96" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="S96" t="s" s="1">
         <v>20</v>
       </c>
     </row>
@@ -837,74 +1607,200 @@
       <c r="G98" t="s" s="1">
         <v>6</v>
       </c>
+      <c r="J98" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="K98" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="L98" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="M98" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="N98" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="O98" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="P98" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="T98" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="U98" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="V98" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="W98" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="X98" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y98" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="1">
         <v>7</v>
       </c>
+      <c r="J99" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="S99" t="s" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="1">
         <v>8</v>
       </c>
+      <c r="J100" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="S100" t="s" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="1">
         <v>9</v>
       </c>
+      <c r="J101" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="S101" t="s" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="1">
         <v>10</v>
       </c>
+      <c r="J102" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="S102" t="s" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="1">
         <v>11</v>
       </c>
+      <c r="J103" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="S103" t="s" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="1">
         <v>12</v>
       </c>
+      <c r="J104" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="S104" t="s" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="J105" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="S105" t="s" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="1">
         <v>14</v>
       </c>
+      <c r="J106" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="S106" t="s" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="1">
         <v>15</v>
       </c>
+      <c r="J107" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="S107" t="s" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="1">
         <v>16</v>
       </c>
+      <c r="J108" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="S108" t="s" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="1">
         <v>17</v>
       </c>
+      <c r="J109" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="S109" t="s" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="1">
         <v>18</v>
       </c>
+      <c r="J110" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="S110" t="s" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="1">
         <v>19</v>
       </c>
+      <c r="J111" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="S111" t="s" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="J112" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="S112" t="s" s="1">
         <v>20</v>
       </c>
     </row>
@@ -931,74 +1827,200 @@
       <c r="G114" t="s" s="1">
         <v>6</v>
       </c>
+      <c r="J114" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="K114" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="L114" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="M114" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="N114" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="O114" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="P114" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="T114" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="U114" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="V114" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="W114" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="X114" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y114" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="1">
         <v>7</v>
       </c>
+      <c r="J115" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="S115" t="s" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="1">
         <v>8</v>
       </c>
+      <c r="J116" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="S116" t="s" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="1">
         <v>9</v>
       </c>
+      <c r="J117" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="S117" t="s" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="1">
         <v>10</v>
       </c>
+      <c r="J118" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="S118" t="s" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="1">
         <v>11</v>
       </c>
+      <c r="J119" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="S119" t="s" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="1">
         <v>12</v>
       </c>
+      <c r="J120" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="S120" t="s" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="J121" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="S121" t="s" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="1">
         <v>14</v>
       </c>
+      <c r="J122" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="S122" t="s" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="1">
         <v>15</v>
       </c>
+      <c r="J123" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="S123" t="s" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="1">
         <v>16</v>
       </c>
+      <c r="J124" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="S124" t="s" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="1">
         <v>17</v>
       </c>
+      <c r="J125" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="S125" t="s" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="1">
         <v>18</v>
       </c>
+      <c r="J126" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="S126" t="s" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="1">
         <v>19</v>
       </c>
+      <c r="J127" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="S127" t="s" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="J128" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="S128" t="s" s="1">
         <v>20</v>
       </c>
     </row>
@@ -1025,74 +2047,200 @@
       <c r="G130" t="s" s="1">
         <v>6</v>
       </c>
+      <c r="J130" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="K130" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="L130" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="M130" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="N130" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="O130" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="P130" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="S130" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="T130" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="U130" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="V130" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="W130" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="X130" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y130" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="1">
         <v>7</v>
       </c>
+      <c r="J131" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="S131" t="s" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="1">
         <v>8</v>
       </c>
+      <c r="J132" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="S132" t="s" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="1">
         <v>9</v>
       </c>
+      <c r="J133" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="S133" t="s" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="1">
         <v>10</v>
       </c>
+      <c r="J134" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="S134" t="s" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="1">
         <v>11</v>
       </c>
+      <c r="J135" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="S135" t="s" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="1">
         <v>12</v>
       </c>
+      <c r="J136" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="S136" t="s" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="J137" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="S137" t="s" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="1">
         <v>14</v>
       </c>
+      <c r="J138" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="S138" t="s" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="1">
         <v>15</v>
       </c>
+      <c r="J139" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="S139" t="s" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="1">
         <v>16</v>
       </c>
+      <c r="J140" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="S140" t="s" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="1">
         <v>17</v>
       </c>
+      <c r="J141" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="S141" t="s" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="1">
         <v>18</v>
       </c>
+      <c r="J142" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="S142" t="s" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="1">
         <v>19</v>
       </c>
+      <c r="J143" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="S143" t="s" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="J144" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="S144" t="s" s="1">
         <v>20</v>
       </c>
     </row>
@@ -1119,74 +2267,200 @@
       <c r="G146" t="s" s="1">
         <v>6</v>
       </c>
+      <c r="J146" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="K146" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="L146" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="M146" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="N146" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="O146" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="P146" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="S146" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="T146" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="U146" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="V146" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="W146" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="X146" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y146" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="1">
         <v>7</v>
       </c>
+      <c r="J147" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="S147" t="s" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="1">
         <v>8</v>
       </c>
+      <c r="J148" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="S148" t="s" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="1">
         <v>9</v>
       </c>
+      <c r="J149" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="S149" t="s" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="1">
         <v>10</v>
       </c>
+      <c r="J150" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="S150" t="s" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="1">
         <v>11</v>
       </c>
+      <c r="J151" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="S151" t="s" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="1">
         <v>12</v>
       </c>
+      <c r="J152" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="S152" t="s" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="1">
         <v>13</v>
       </c>
+      <c r="J153" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="S153" t="s" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="1">
         <v>14</v>
       </c>
+      <c r="J154" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="S154" t="s" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="1">
         <v>15</v>
       </c>
+      <c r="J155" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="S155" t="s" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="1">
         <v>16</v>
       </c>
+      <c r="J156" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="S156" t="s" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="1">
         <v>17</v>
       </c>
+      <c r="J157" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="S157" t="s" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="1">
         <v>18</v>
       </c>
+      <c r="J158" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="S158" t="s" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="1">
         <v>19</v>
       </c>
+      <c r="J159" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="S159" t="s" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="J160" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="S160" t="s" s="1">
         <v>20</v>
       </c>
     </row>
@@ -1389,6 +2663,8 @@
   </sheetData>
   <mergeCells>
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="U1:W1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CSV_2_XLSX.xlsx
+++ b/CSV_2_XLSX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="38">
   <si>
     <t>Engenharia de Computação</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>Engenharia Mecânica</t>
+  </si>
+  <si>
+    <t>dsc111|Prof026|12</t>
+  </si>
+  <si>
+    <t>dsc112|Prof043|8</t>
+  </si>
+  <si>
+    <t>dsc311|Prof096|27</t>
   </si>
 </sst>
 </file>
@@ -226,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
@@ -235,6 +244,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -252,6 +264,9 @@
     <col min="1" max="1" width="11.73046875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="11.73046875" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="11.73046875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="18.55859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="17.4453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.55859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -334,6 +349,9 @@
       <c r="A3" t="s" s="1">
         <v>7</v>
       </c>
+      <c r="D3" t="s" s="4">
+        <v>35</v>
+      </c>
       <c r="J3" t="s" s="1">
         <v>7</v>
       </c>
@@ -395,6 +413,9 @@
       <c r="S8" t="s" s="1">
         <v>12</v>
       </c>
+      <c r="Y8" t="s" s="4">
+        <v>37</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
@@ -454,6 +475,9 @@
     <row r="14">
       <c r="A14" t="s" s="1">
         <v>18</v>
+      </c>
+      <c r="F14" t="s" s="4">
+        <v>36</v>
       </c>
       <c r="J14" t="s" s="1">
         <v>18</v>
